--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\Ischnura_Reinforcement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C28EBB-D7AC-4E62-8A30-6C831EE9717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2153AAD4-7BA1-4132-AA48-BD8D56769A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A9BA1AB8-E61D-4C57-8F87-AFE6D9DBAD1E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Population</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>AGra</t>
+  </si>
+  <si>
+    <t>Riomaior</t>
+  </si>
+  <si>
+    <t>Rio</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43394BDD-7C40-49A1-B13E-355682881545}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,25 +643,33 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\Ischnura_Reinforcement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2153AAD4-7BA1-4132-AA48-BD8D56769A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAD9AC-53CB-418C-84CA-E115F09B4FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A9BA1AB8-E61D-4C57-8F87-AFE6D9DBAD1E}"/>
+    <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{A9BA1AB8-E61D-4C57-8F87-AFE6D9DBAD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,9 +116,6 @@
     <t>Cor</t>
   </si>
   <si>
-    <t>Lai</t>
-  </si>
-  <si>
     <t>Lan</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Rio</t>
+  </si>
+  <si>
+    <t>Sai</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,15 +638,15 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,11 +670,11 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{43394BDD-7C40-49A1-B13E-355682881545}">
+  <autoFilter ref="A1:B19" xr:uid="{43394BDD-7C40-49A1-B13E-355682881545}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
       <sortCondition ref="A1"/>
     </sortState>
